--- a/mcmaster_excel/Steel_Narrow_Cheese_Head_Slotted_Screws.xlsx
+++ b/mcmaster_excel/Steel_Narrow_Cheese_Head_Slotted_Screws.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,103 +435,159 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MinimumThread Length</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MinimumThread Length</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>91460A001</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$6.30</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>M1.6 × 0.35 mm</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -571,21 +627,29 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>91460A001</t>
+          <t>91460A002</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>$6.30</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -625,21 +689,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>91460A002</t>
+          <t>91460A003</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8.15</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -679,21 +751,29 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>91460A003</t>
+          <t>91460A004</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9.26</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -733,21 +813,29 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>91460A004</t>
+          <t>91460A005</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>9.63</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -787,21 +875,29 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>91460A005</t>
+          <t>91460A007</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -816,12 +912,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -836,44 +932,96 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>91460A007</t>
+          <t>91460A021</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.8</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>91460A023</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -913,21 +1061,29 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>91460A021</t>
+          <t>91460A025</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -967,7 +1123,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>91460A023</t>
+          <t>91460A027</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,13 +1131,21 @@
           <t>6.36</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1021,7 +1185,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>91460A025</t>
+          <t>91460A015</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1029,13 +1193,21 @@
           <t>6.36</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1075,7 +1247,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>91460A027</t>
+          <t>91460A018</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1083,13 +1255,21 @@
           <t>6.36</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1129,21 +1309,29 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>91460A015</t>
+          <t>91460A019</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1158,12 +1346,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1178,26 +1366,34 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>91460A018</t>
+          <t>91460A068</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1212,12 +1408,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1232,44 +1428,96 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>91460A019</t>
+          <t>91460A069</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>91460A070</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1304,26 +1552,34 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>91460A068</t>
+          <t>91460A071</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>15.74</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1358,26 +1614,34 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>91460A069</t>
+          <t>91460A073</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1417,21 +1681,29 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>91460A070</t>
+          <t>91460A075</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1471,21 +1743,29 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>91460A071</t>
+          <t>91460A077</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1500,12 +1780,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1515,7 +1795,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 920</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1525,21 +1805,29 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>91460A073</t>
+          <t>90657A101</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1554,12 +1842,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1569,7 +1857,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 920</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1579,21 +1867,29 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>91460A075</t>
+          <t>90657A102</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1608,12 +1904,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1633,39 +1929,91 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>91460A077</t>
+          <t>91460A109</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DIN 920</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>90657A103</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1680,7 +2028,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1695,7 +2043,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>DIN 920</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1705,21 +2053,29 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>90657A101</t>
+          <t>91460A110</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>22.29</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1759,21 +2115,29 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>90657A102</t>
+          <t>90657A104</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>24.56</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1813,21 +2177,29 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>91460A109</t>
+          <t>91460A111</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1867,21 +2239,29 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>90657A103</t>
+          <t>90657A105</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>24.86</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1921,7 +2301,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>91460A110</t>
+          <t>91460A113</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1929,13 +2309,21 @@
           <t>6.36</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1950,7 +2338,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1965,7 +2353,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>DIN 920</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1975,36 +2363,44 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>90657A104</t>
+          <t>91460A115</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>20.01</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>9 mm</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2019,7 +2415,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 920</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2029,21 +2425,29 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>91460A111</t>
+          <t>90657A106</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2058,7 +2462,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2073,7 +2477,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>DIN 920</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2083,36 +2487,44 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>90657A105</t>
+          <t>91460A117</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>9 mm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2127,7 +2539,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 920</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2137,21 +2549,29 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>91460A113</t>
+          <t>90657A107</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2191,7 +2611,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>91460A115</t>
+          <t>91460A120</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2199,13 +2619,21 @@
           <t>6.36</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2245,21 +2673,29 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>90657A106</t>
+          <t>90657A108</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>23.42</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2299,7 +2735,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>91460A117</t>
+          <t>91460A123</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2307,28 +2743,36 @@
           <t>6.36</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>9 mm</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2343,7 +2787,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>DIN 920</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2353,21 +2797,29 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>90657A107</t>
+          <t>91460A125</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>24.29</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2382,12 +2834,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2407,7 +2859,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>91460A120</t>
+          <t>91460A138</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2415,33 +2867,41 @@
           <t>6.36</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>9 mm</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2461,21 +2921,29 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>90657A108</t>
+          <t>90657A109</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>25.71</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2490,12 +2958,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2515,7 +2983,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>91460A123</t>
+          <t>91460A139</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2523,13 +2991,21 @@
           <t>6.36</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2549,7 +3025,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2559,7 +3035,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 920</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2569,39 +3045,91 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>91460A125</t>
+          <t>90657A110</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>91460A140</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2616,7 +3144,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2631,7 +3159,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 920</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2641,21 +3169,29 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>91460A138</t>
+          <t>90657A111</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2670,7 +3206,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2685,7 +3221,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>DIN 920</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2695,21 +3231,29 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>90657A109</t>
+          <t>91460A144</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>27.50</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2724,7 +3268,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2739,7 +3283,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>DIN 84, ISO 1207</t>
+          <t>DIN 920</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2749,21 +3293,29 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>91460A139</t>
+          <t>90657A112</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2778,7 +3330,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2793,7 +3345,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>DIN 920</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2803,21 +3355,29 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>90657A110</t>
+          <t>91460A148</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>27.75</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2857,7 +3417,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>91460A140</t>
+          <t>91460A154</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2865,23 +3425,31 @@
           <t>6.94</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>12 mm</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2911,21 +3479,29 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>90657A111</t>
+          <t>90657A113</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2965,7 +3541,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>91460A144</t>
+          <t>91460A168</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2973,13 +3549,21 @@
           <t>6.94</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2994,7 +3578,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3009,7 +3593,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>DIN 920</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3019,21 +3603,29 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>90657A112</t>
+          <t>91460A176</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3073,7 +3665,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>91460A148</t>
+          <t>91460A180</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3081,13 +3673,21 @@
           <t>6.94</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3127,36 +3727,44 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>91460A154</t>
+          <t>91460A184</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>12 mm</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3171,31 +3779,39 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>DIN 920</t>
+          <t>DIN 84, ISO 1207</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>90657A113</t>
+          <t>91460A187</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>31.25</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3210,12 +3826,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3235,21 +3851,29 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>91460A168</t>
+          <t>91460A220</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3264,12 +3888,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3289,21 +3913,29 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>91460A176</t>
+          <t>91460A222</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3318,12 +3950,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3343,21 +3975,29 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>91460A180</t>
+          <t>91460A224</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3372,12 +4012,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3397,21 +4037,29 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>91460A184</t>
+          <t>91460A228</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3426,12 +4074,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3446,44 +4094,96 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>91460A187</t>
+          <t>91460A232</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>91460A242</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3523,21 +4223,29 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>91460A220</t>
+          <t>91460A252</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>9.84</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3577,21 +4285,29 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>91460A222</t>
+          <t>91460A254</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>11.57</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3626,26 +4342,34 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>91460A224</t>
+          <t>91460A256</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>11.57</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3680,26 +4404,34 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>91460A228</t>
+          <t>91460A258</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>12.15</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3714,12 +4446,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3739,21 +4471,29 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>91460A232</t>
+          <t>91460A312</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>10.41</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3768,12 +4508,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3793,21 +4533,29 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>91460A242</t>
+          <t>91460A316</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>10.41</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3822,12 +4570,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3847,21 +4595,29 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>91460A252</t>
+          <t>91460A318</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>11.57</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3876,12 +4632,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3896,26 +4652,34 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>91460A254</t>
+          <t>91460A321</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>13.31</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3930,12 +4694,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3955,21 +4719,29 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>91460A256</t>
+          <t>91460A326</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3984,12 +4756,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4004,44 +4776,96 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>91460A258</t>
+          <t>91460A330</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>DIN 84, ISO 1207</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>91460A332</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4076,26 +4900,34 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>91460A312</t>
+          <t>91460A334</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>10.99</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4130,399 +4962,29 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>91460A316</t>
+          <t>91460A336</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>91460A318</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>13.89</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>91460A321</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>91460A326</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>8.84</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>91460A330</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>11.57</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>91460A332</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>91460A334</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>DIN 84, ISO 1207</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>91460A336</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
           <t>9.40</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4535,7 +4997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4544,75 +5006,53 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Dia.,mm</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Black-Oxide Steel</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tip</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -4628,19 +5068,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Dia.,mm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
     </row>
@@ -4700,27 +5176,83 @@
           <t>$7.32</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Black-Oxide Steel</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DIN 922</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>90658A102</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Black-Oxide Steel</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4730,29 +5262,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>2.8</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>60,000</t>
@@ -4770,50 +5302,106 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>90658A102</t>
+          <t>90658A103</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Black-Oxide Steel</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>DIN 922</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>90658A104</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Black-Oxide Steel</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4823,12 +5411,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4848,250 +5436,91 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>90658A103</t>
+          <t>90658A105</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Black-Oxide Steel</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7.5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.8</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>DIN 922</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>90658A104</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>DIN 922</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>90658A105</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>90658A106</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>M10 × 1.5 mm</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>13.0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>DIN 922</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>90658A106</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>8.47</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Black-Oxide Steel</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
